--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/78.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/0_fold/78.xlsx
@@ -479,13 +479,13 @@
         <v>-0.2280051677019333</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.648746455238255</v>
+        <v>-1.611191809408847</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02851161891251082</v>
+        <v>0.03158195959926054</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.162091642174641</v>
+        <v>-0.1702292038438136</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.245081782379202</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.698879495184239</v>
+        <v>-1.663125945113268</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.01356192921092372</v>
+        <v>-0.01665361712135962</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1791938179506566</v>
+        <v>-0.1900125909148136</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.2631948391538262</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.85520521423815</v>
+        <v>-1.837673044385027</v>
       </c>
       <c r="F4" t="n">
-        <v>0.02791084704591398</v>
+        <v>0.02823105540120671</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1948754884705259</v>
+        <v>-0.2094989466162373</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.2645864622073096</v>
       </c>
       <c r="E5" t="n">
-        <v>-2.002151573125029</v>
+        <v>-1.982581048370214</v>
       </c>
       <c r="F5" t="n">
-        <v>0.05218325029777969</v>
+        <v>0.05093108314841593</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2145972735531743</v>
+        <v>-0.2270628323445512</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.2445812420820579</v>
       </c>
       <c r="E6" t="n">
-        <v>-2.113879892295122</v>
+        <v>-2.091578142749829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.154084527524108</v>
+        <v>0.1560997054400836</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2051496022703469</v>
+        <v>-0.2222017645508691</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.2106460754326455</v>
       </c>
       <c r="E7" t="n">
-        <v>-2.023306061877359</v>
+        <v>-1.994698342455168</v>
       </c>
       <c r="F7" t="n">
-        <v>0.2562736873098613</v>
+        <v>0.2681665305857717</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2147546330877753</v>
+        <v>-0.230084379377161</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1757633351536748</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.78399575538646</v>
+        <v>-1.755275810559748</v>
       </c>
       <c r="F8" t="n">
-        <v>0.3650255935774238</v>
+        <v>0.3763097360179397</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2321068763412576</v>
+        <v>-0.2433904088610967</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1455550502923918</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.477736285970958</v>
+        <v>-1.466539972107894</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5013263969723426</v>
+        <v>0.5249455751794111</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.2097136386944526</v>
+        <v>-0.2198688179623078</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.1160510076054809</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.010842617840997</v>
+        <v>-1.004112753093758</v>
       </c>
       <c r="F10" t="n">
-        <v>0.531429031973243</v>
+        <v>0.5586314941562064</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.1757404470789091</v>
+        <v>-0.1810644446662429</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.08050723191028926</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4902484837267521</v>
+        <v>-0.4961915508009852</v>
       </c>
       <c r="F11" t="n">
-        <v>0.4967599208655298</v>
+        <v>0.5371763145102399</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1240502796451879</v>
+        <v>-0.1332942374219815</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.03643218682243866</v>
       </c>
       <c r="E12" t="n">
-        <v>0.07071142061603219</v>
+        <v>0.06052513539366288</v>
       </c>
       <c r="F12" t="n">
-        <v>0.3786103568106333</v>
+        <v>0.4215048581649707</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.03207668127428777</v>
+        <v>-0.0368706577935275</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01370394626934233</v>
       </c>
       <c r="E13" t="n">
-        <v>0.5793883146272962</v>
+        <v>0.5612102387774971</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2064950112770686</v>
+        <v>0.2631005294447024</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05783965465394118</v>
+        <v>0.05757433915955577</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.06371933685967854</v>
       </c>
       <c r="E14" t="n">
-        <v>1.104475734367144</v>
+        <v>1.087148497861408</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.02289920485125974</v>
+        <v>0.03073051033452025</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1920252531418977</v>
+        <v>0.1947802648387686</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.1129636523568231</v>
       </c>
       <c r="E15" t="n">
-        <v>1.713011891178983</v>
+        <v>1.691940961559368</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.3303797354616117</v>
+        <v>-0.2836006493170659</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3597241630551297</v>
+        <v>0.3709686606516569</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.166081174190984</v>
       </c>
       <c r="E16" t="n">
-        <v>2.237265549353716</v>
+        <v>2.215262051019353</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5811949756780086</v>
+        <v>-0.5258227171187594</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5272053312867626</v>
+        <v>0.5394415599036823</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.2265892713755567</v>
       </c>
       <c r="E17" t="n">
-        <v>2.732178363452807</v>
+        <v>2.713206170881882</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.7984926350243926</v>
+        <v>-0.7380982896128</v>
       </c>
       <c r="G17" t="n">
-        <v>0.6437709313441445</v>
+        <v>0.6568360421607646</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.2955959172233653</v>
       </c>
       <c r="E18" t="n">
-        <v>3.187820824858797</v>
+        <v>3.182325439561297</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.108115816972161</v>
+        <v>-1.0487619962351</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8172561587176853</v>
+        <v>0.8353012718599534</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.3706417687992231</v>
       </c>
       <c r="E19" t="n">
-        <v>3.57137188211452</v>
+        <v>3.572762501257506</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.448195387913343</v>
+        <v>-1.384341572423235</v>
       </c>
       <c r="G19" t="n">
-        <v>1.014358734536265</v>
+        <v>1.034006719217026</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.4471208039043067</v>
       </c>
       <c r="E20" t="n">
-        <v>3.940290942335058</v>
+        <v>3.946771959446183</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.694611880209033</v>
+        <v>-1.627397401790043</v>
       </c>
       <c r="G20" t="n">
-        <v>1.185214593872344</v>
+        <v>1.213941857747178</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.5190831230590851</v>
       </c>
       <c r="E21" t="n">
-        <v>4.246849272882167</v>
+        <v>4.262311981879083</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.962450006513468</v>
+        <v>-1.908033493654683</v>
       </c>
       <c r="G21" t="n">
-        <v>1.263457048047615</v>
+        <v>1.290862613815936</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.5805940420554778</v>
       </c>
       <c r="E22" t="n">
-        <v>4.540627325568696</v>
+        <v>4.553350270885661</v>
       </c>
       <c r="F22" t="n">
-        <v>-2.181790290206281</v>
+        <v>-2.125398854196186</v>
       </c>
       <c r="G22" t="n">
-        <v>1.409312258843793</v>
+        <v>1.442222358719764</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.6282548321373458</v>
       </c>
       <c r="E23" t="n">
-        <v>4.700641234954903</v>
+        <v>4.709958383212906</v>
       </c>
       <c r="F23" t="n">
-        <v>-2.374262348246989</v>
+        <v>-2.319235304790779</v>
       </c>
       <c r="G23" t="n">
-        <v>1.513626992188013</v>
+        <v>1.551763502343039</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>0.660439507028234</v>
       </c>
       <c r="E24" t="n">
-        <v>4.864237818396328</v>
+        <v>4.867199593202616</v>
       </c>
       <c r="F24" t="n">
-        <v>-2.59907788985497</v>
+        <v>-2.541314742242868</v>
       </c>
       <c r="G24" t="n">
-        <v>1.650493801970954</v>
+        <v>1.686363846891184</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.6765531074897645</v>
       </c>
       <c r="E25" t="n">
-        <v>4.96744371595022</v>
+        <v>4.965756675358334</v>
       </c>
       <c r="F25" t="n">
-        <v>-2.73729140449217</v>
+        <v>-2.689511438517081</v>
       </c>
       <c r="G25" t="n">
-        <v>1.69050764796901</v>
+        <v>1.730769121761826</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.6763821200137436</v>
       </c>
       <c r="E26" t="n">
-        <v>4.961655568727881</v>
+        <v>4.954029120585823</v>
       </c>
       <c r="F26" t="n">
-        <v>-2.838749879307179</v>
+        <v>-2.795841349777277</v>
       </c>
       <c r="G26" t="n">
-        <v>1.751197804908826</v>
+        <v>1.794990719420013</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.6609485690656588</v>
       </c>
       <c r="E27" t="n">
-        <v>4.939804550562705</v>
+        <v>4.930838716614509</v>
       </c>
       <c r="F27" t="n">
-        <v>-2.889957599485593</v>
+        <v>-2.856982238097209</v>
       </c>
       <c r="G27" t="n">
-        <v>1.768893433503317</v>
+        <v>1.807018355165485</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.6325199728290208</v>
       </c>
       <c r="E28" t="n">
-        <v>4.874062420657386</v>
+        <v>4.860380680036573</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.003735252129559</v>
+        <v>-2.981146229945518</v>
       </c>
       <c r="G28" t="n">
-        <v>1.788540808263402</v>
+        <v>1.830424671056368</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.5935237315309647</v>
       </c>
       <c r="E29" t="n">
-        <v>4.813661976039025</v>
+        <v>4.801119567242378</v>
       </c>
       <c r="F29" t="n">
-        <v>-2.997126761596994</v>
+        <v>-2.983637450949696</v>
       </c>
       <c r="G29" t="n">
-        <v>1.754487717039205</v>
+        <v>1.800175655093048</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.5470896603346551</v>
       </c>
       <c r="E30" t="n">
-        <v>4.749711793081992</v>
+        <v>4.735927585787485</v>
       </c>
       <c r="F30" t="n">
-        <v>-2.963454870795764</v>
+        <v>-2.952153040655622</v>
       </c>
       <c r="G30" t="n">
-        <v>1.737850300818871</v>
+        <v>1.783235718217048</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.4955167064607433</v>
       </c>
       <c r="E31" t="n">
-        <v>4.612408890015176</v>
+        <v>4.592635261675003</v>
       </c>
       <c r="F31" t="n">
-        <v>-2.956613390564681</v>
+        <v>-2.944663824665833</v>
       </c>
       <c r="G31" t="n">
-        <v>1.709632930629799</v>
+        <v>1.754332187266634</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.4409922730236671</v>
       </c>
       <c r="E32" t="n">
-        <v>4.522373619554981</v>
+        <v>4.502499964223822</v>
       </c>
       <c r="F32" t="n">
-        <v>-2.905760644220135</v>
+        <v>-2.90177237291488</v>
       </c>
       <c r="G32" t="n">
-        <v>1.675674377110498</v>
+        <v>1.719597204725832</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.3854030529510941</v>
       </c>
       <c r="E33" t="n">
-        <v>4.259078182450965</v>
+        <v>4.238962998531814</v>
       </c>
       <c r="F33" t="n">
-        <v>-2.850345081292837</v>
+        <v>-2.849657090769465</v>
       </c>
       <c r="G33" t="n">
-        <v>1.593057571841589</v>
+        <v>1.637672659425033</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.3301260843733718</v>
       </c>
       <c r="E34" t="n">
-        <v>4.132159788826462</v>
+        <v>4.09994743820469</v>
       </c>
       <c r="F34" t="n">
-        <v>-2.747250189302112</v>
+        <v>-2.747043426192695</v>
       </c>
       <c r="G34" t="n">
-        <v>1.503288836717134</v>
+        <v>1.543848561720879</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.2767933976478241</v>
       </c>
       <c r="E35" t="n">
-        <v>3.925263716701339</v>
+        <v>3.892254809675734</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.687127868512349</v>
+        <v>-2.684992536223055</v>
       </c>
       <c r="G35" t="n">
-        <v>1.443755089380432</v>
+        <v>1.480108801397324</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.2258120029293575</v>
       </c>
       <c r="E36" t="n">
-        <v>3.772642045917319</v>
+        <v>3.742792527997269</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.706879539708158</v>
+        <v>-2.708758095392543</v>
       </c>
       <c r="G36" t="n">
-        <v>1.387755222444809</v>
+        <v>1.423844228887992</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.1778026201999962</v>
       </c>
       <c r="E37" t="n">
-        <v>3.539808487092808</v>
+        <v>3.512830475718888</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.66772324218161</v>
+        <v>-2.669937864158882</v>
       </c>
       <c r="G37" t="n">
-        <v>1.302816449159521</v>
+        <v>1.33675487529649</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.132578332390995</v>
       </c>
       <c r="E38" t="n">
-        <v>3.348494668417245</v>
+        <v>3.322593776958462</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.629204311762263</v>
+        <v>-2.621272293361155</v>
       </c>
       <c r="G38" t="n">
-        <v>1.252021035358589</v>
+        <v>1.281184392517298</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.08937346775025276</v>
       </c>
       <c r="E39" t="n">
-        <v>3.128452366025495</v>
+        <v>3.109575321080142</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.611819132792236</v>
+        <v>-2.602697769071469</v>
       </c>
       <c r="G39" t="n">
-        <v>1.164879228588888</v>
+        <v>1.195717427925946</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.04801214159855425</v>
       </c>
       <c r="E40" t="n">
-        <v>2.931149126304265</v>
+        <v>2.912603878207064</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.591064752003854</v>
+        <v>-2.591497795684345</v>
       </c>
       <c r="G40" t="n">
-        <v>1.078189982961333</v>
+        <v>1.102635603685395</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.007828372151633164</v>
       </c>
       <c r="E41" t="n">
-        <v>2.719201691134315</v>
+        <v>2.690282912166983</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.558527923582052</v>
+        <v>-2.554001702239904</v>
       </c>
       <c r="G41" t="n">
-        <v>1.014477059147554</v>
+        <v>1.034340345827208</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.03145382535115783</v>
       </c>
       <c r="E42" t="n">
-        <v>2.517464328093127</v>
+        <v>2.4929259994262</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.505974108470055</v>
+        <v>-2.505443477481284</v>
       </c>
       <c r="G42" t="n">
-        <v>0.956745627410643</v>
+        <v>0.9772926351689315</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.06959924534943226</v>
       </c>
       <c r="E43" t="n">
-        <v>2.305385150057</v>
+        <v>2.278044845801091</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.447147259197705</v>
+        <v>-2.440006307914339</v>
       </c>
       <c r="G43" t="n">
-        <v>0.8809379765769501</v>
+        <v>0.8949167485673388</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.1060272800021305</v>
       </c>
       <c r="E44" t="n">
-        <v>2.123689780453753</v>
+        <v>2.094072032390867</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.41433901607475</v>
+        <v>-2.402740154565032</v>
       </c>
       <c r="G44" t="n">
-        <v>0.8240878802179403</v>
+        <v>0.83565075640773</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.1398960670692989</v>
       </c>
       <c r="E45" t="n">
-        <v>1.95890202193064</v>
+        <v>1.932877926495154</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.389378012378836</v>
+        <v>-2.375272986808361</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7522752098169473</v>
+        <v>0.7619394029400203</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.1714003948939951</v>
       </c>
       <c r="E46" t="n">
-        <v>1.831044350463944</v>
+        <v>1.805722273727395</v>
       </c>
       <c r="F46" t="n">
-        <v>-2.292582381137566</v>
+        <v>-2.273508331813624</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6798879941384575</v>
+        <v>0.6876169089542089</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-0.200708390867927</v>
       </c>
       <c r="E47" t="n">
-        <v>1.646910517995059</v>
+        <v>1.619021285130077</v>
       </c>
       <c r="F47" t="n">
-        <v>-2.182022669984122</v>
+        <v>-2.165443806148756</v>
       </c>
       <c r="G47" t="n">
-        <v>0.5882071576923964</v>
+        <v>0.589905176856463</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.2283127998287908</v>
       </c>
       <c r="E48" t="n">
-        <v>1.530840173527197</v>
+        <v>1.508490850169118</v>
       </c>
       <c r="F48" t="n">
-        <v>-2.160918194727286</v>
+        <v>-2.149323602662305</v>
       </c>
       <c r="G48" t="n">
-        <v>0.5439854689454552</v>
+        <v>0.547382727114942</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.2545009328790914</v>
       </c>
       <c r="E49" t="n">
-        <v>1.404495715259513</v>
+        <v>1.380955216819745</v>
       </c>
       <c r="F49" t="n">
-        <v>-2.058072760293352</v>
+        <v>-2.048959935462059</v>
       </c>
       <c r="G49" t="n">
-        <v>0.4825481591766234</v>
+        <v>0.4854343038189952</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.2793131028826101</v>
       </c>
       <c r="E50" t="n">
-        <v>1.299597287827645</v>
+        <v>1.275757928256271</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.988724779347097</v>
+        <v>-1.983702692494754</v>
       </c>
       <c r="G50" t="n">
-        <v>0.4093485291567052</v>
+        <v>0.4081353969306533</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.3034857855443953</v>
       </c>
       <c r="E51" t="n">
-        <v>1.207659674776673</v>
+        <v>1.180352916157986</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.964898228109935</v>
+        <v>-1.963304505381592</v>
       </c>
       <c r="G51" t="n">
-        <v>0.3532291177684396</v>
+        <v>0.3481448190070678</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.3266969984594154</v>
       </c>
       <c r="E52" t="n">
-        <v>1.117291997547651</v>
+        <v>1.086722773229038</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.922574612509033</v>
+        <v>-1.920647263170509</v>
       </c>
       <c r="G52" t="n">
-        <v>0.2880224982173047</v>
+        <v>0.2819202418464404</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.3489647212352738</v>
       </c>
       <c r="E53" t="n">
-        <v>1.064888222922134</v>
+        <v>1.025966134935457</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.918448499130833</v>
+        <v>-1.920038562335115</v>
       </c>
       <c r="G53" t="n">
-        <v>0.2414001616866832</v>
+        <v>0.2323715059087817</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.3703125352466279</v>
       </c>
       <c r="E54" t="n">
-        <v>0.9721644221188339</v>
+        <v>0.931934054280532</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.840453672750321</v>
+        <v>-1.846038106466626</v>
       </c>
       <c r="G54" t="n">
-        <v>0.1937049746856618</v>
+        <v>0.1812235579566896</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3905256303716185</v>
       </c>
       <c r="E55" t="n">
-        <v>0.9291918509178727</v>
+        <v>0.8840028279776091</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.869241318772153</v>
+        <v>-1.872179916592725</v>
       </c>
       <c r="G55" t="n">
-        <v>0.1642299480611352</v>
+        <v>0.1497766577842364</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.4098977402075513</v>
       </c>
       <c r="E56" t="n">
-        <v>0.8944282021052636</v>
+        <v>0.8476765623911715</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.834356295744871</v>
+        <v>-1.83992121199952</v>
       </c>
       <c r="G56" t="n">
-        <v>0.1260257367109903</v>
+        <v>0.1160358459465339</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.4284074111231476</v>
       </c>
       <c r="E57" t="n">
-        <v>0.82405982386681</v>
+        <v>0.7813623268910621</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.815021810291957</v>
+        <v>-1.815675645257431</v>
       </c>
       <c r="G57" t="n">
-        <v>0.04224642263220033</v>
+        <v>0.0228790014627425</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4463511371809868</v>
       </c>
       <c r="E58" t="n">
-        <v>0.7498495552855202</v>
+        <v>0.696760229819339</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.828087531029254</v>
+        <v>-1.828428476687556</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02482830794562929</v>
+        <v>0.003168804872952259</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4640361186290966</v>
       </c>
       <c r="E59" t="n">
-        <v>0.662674202878597</v>
+        <v>0.6043755449123107</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.828993873154902</v>
+        <v>-1.831105418537804</v>
       </c>
       <c r="G59" t="n">
-        <v>0.006170224523229452</v>
+        <v>-0.01792408189102583</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4808075546866586</v>
       </c>
       <c r="E60" t="n">
-        <v>0.5775561129143451</v>
+        <v>0.5152350280849053</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.802744716989696</v>
+        <v>-1.800947280755319</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.02804937504572034</v>
+        <v>-0.06261662940041653</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4972723505523654</v>
       </c>
       <c r="E61" t="n">
-        <v>0.5455236888922138</v>
+        <v>0.474037326053281</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.7561400681587</v>
+        <v>-1.751313765843592</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.05150265482871341</v>
+        <v>-0.08664933382632024</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.5135567214345208</v>
       </c>
       <c r="E62" t="n">
-        <v>0.5348439778423554</v>
+        <v>0.4621115470608262</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.708147849788102</v>
+        <v>-1.691986781616309</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.1011068935479562</v>
+        <v>-0.143494550819916</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.5304309352288171</v>
       </c>
       <c r="E63" t="n">
-        <v>0.4911590192909525</v>
+        <v>0.415299525199736</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.757634373816733</v>
+        <v>-1.739105593577803</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.1150844456969915</v>
+        <v>-0.166253130952093</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.5488359853834635</v>
       </c>
       <c r="E64" t="n">
-        <v>0.4757518130756198</v>
+        <v>0.3861026224038064</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.711857387344084</v>
+        <v>-1.68535084465329</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.1305721614416549</v>
+        <v>-0.1835474317412842</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5690471881781786</v>
       </c>
       <c r="E65" t="n">
-        <v>0.4549876735564088</v>
+        <v>0.360345672224736</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.727450619365825</v>
+        <v>-1.702149279932285</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.144503969539934</v>
+        <v>-0.1984502335569463</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5919147008914798</v>
       </c>
       <c r="E66" t="n">
-        <v>0.4640834206087526</v>
+        <v>0.3629463739903897</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.716413494799392</v>
+        <v>-1.683193555219632</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.1687318485823971</v>
+        <v>-0.2267450636719654</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.6175952274289488</v>
       </c>
       <c r="E67" t="n">
-        <v>0.4242055869216111</v>
+        <v>0.3208032949098059</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.693535980135249</v>
+        <v>-1.660087320301709</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.1843086127458658</v>
+        <v>-0.245568435597764</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.6451824260504345</v>
       </c>
       <c r="E68" t="n">
-        <v>0.3996239538866341</v>
+        <v>0.2935794855031563</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.650577437109853</v>
+        <v>-1.605099311768811</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.2284260050570831</v>
+        <v>-0.2921181915678525</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.6743634067134875</v>
       </c>
       <c r="E69" t="n">
-        <v>0.3295580963038475</v>
+        <v>0.221605186122825</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.668940928845384</v>
+        <v>-1.623801919400613</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.2164752193168816</v>
+        <v>-0.279852686758449</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.703448780471898</v>
       </c>
       <c r="E70" t="n">
-        <v>0.3586006891685597</v>
+        <v>0.2627443357694815</v>
       </c>
       <c r="F70" t="n">
-        <v>-1.639553730798309</v>
+        <v>-1.593598647488049</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.2463875590666366</v>
+        <v>-0.3079370942399902</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.731205722890746</v>
       </c>
       <c r="E71" t="n">
-        <v>0.3833189444351283</v>
+        <v>0.2929165017275311</v>
       </c>
       <c r="F71" t="n">
-        <v>-1.615317922787048</v>
+        <v>-1.566059509091521</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.2796032292016591</v>
+        <v>-0.3407166710911378</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.7567315154782949</v>
       </c>
       <c r="E72" t="n">
-        <v>0.3853957243394555</v>
+        <v>0.2998756966492265</v>
       </c>
       <c r="F72" t="n">
-        <v>-1.608771644163511</v>
+        <v>-1.558663001044597</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.2762193892870609</v>
+        <v>-0.3372608605366832</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.7778526432605182</v>
       </c>
       <c r="E73" t="n">
-        <v>0.443548611263999</v>
+        <v>0.3630122454234785</v>
       </c>
       <c r="F73" t="n">
-        <v>-1.601270839680863</v>
+        <v>-1.549276321829445</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.2920724475170964</v>
+        <v>-0.3522380726749086</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.7940780848437555</v>
       </c>
       <c r="E74" t="n">
-        <v>0.5176228675343739</v>
+        <v>0.4487689223362857</v>
       </c>
       <c r="F74" t="n">
-        <v>-1.565189152285802</v>
+        <v>-1.519556107092865</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.3163424110862551</v>
+        <v>-0.3728729090106489</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.8041079803959521</v>
       </c>
       <c r="E75" t="n">
-        <v>0.5694313595793842</v>
+        <v>0.5050499627038895</v>
       </c>
       <c r="F75" t="n">
-        <v>-1.554003816994919</v>
+        <v>-1.510160888988238</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.2931471277495265</v>
+        <v>-0.3485010886884732</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.8071387503892559</v>
       </c>
       <c r="E76" t="n">
-        <v>0.6355516403042877</v>
+        <v>0.5788180387945369</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.565078146722634</v>
+        <v>-1.520209942058339</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.3039848082546627</v>
+        <v>-0.3545777283909141</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.8029251684597472</v>
       </c>
       <c r="E77" t="n">
-        <v>0.656094378617839</v>
+        <v>0.6119458803521076</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.510407906862321</v>
+        <v>-1.462576097629708</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.297207979615315</v>
+        <v>-0.3465072579961838</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.7910443729343535</v>
       </c>
       <c r="E78" t="n">
-        <v>0.7779839762625547</v>
+        <v>0.7317843147609195</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.542325055876547</v>
+        <v>-1.496870717441898</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.248771129071368</v>
+        <v>-0.2955142298959857</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.7714407439523187</v>
       </c>
       <c r="E79" t="n">
-        <v>0.8992142496557056</v>
+        <v>0.8566741122145588</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.488785608950926</v>
+        <v>-1.439607094864053</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.2373265774928675</v>
+        <v>-0.2816586618823</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.7432359280493901</v>
       </c>
       <c r="E80" t="n">
-        <v>0.9450016047798591</v>
+        <v>0.8992953691057132</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.449098680435607</v>
+        <v>-1.399379166708458</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.233485906991385</v>
+        <v>-0.2727538200017784</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.7057702953305736</v>
       </c>
       <c r="E81" t="n">
-        <v>1.030302061026459</v>
+        <v>0.9916251611518342</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.35068188003554</v>
+        <v>-1.294800947631883</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.2220322066027332</v>
+        <v>-0.2601949433468592</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.6588728837181371</v>
       </c>
       <c r="E82" t="n">
-        <v>1.153180340088183</v>
+        <v>1.117191970556664</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.316426295146662</v>
+        <v>-1.266990394534202</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.169015461697085</v>
+        <v>-0.2037852097164615</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.6015117222407108</v>
       </c>
       <c r="E83" t="n">
-        <v>1.241104675086153</v>
+        <v>1.203337166940559</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.209780444975911</v>
+        <v>-1.160771488837174</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.1596653777225372</v>
+        <v>-0.19060970325735</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.5344012313367724</v>
       </c>
       <c r="E84" t="n">
-        <v>1.377279224900985</v>
+        <v>1.347279666494455</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.132419936099217</v>
+        <v>-1.087898776299993</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1178443367592764</v>
+        <v>-0.1416410018832787</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.4589950674412662</v>
       </c>
       <c r="E85" t="n">
-        <v>1.500581398833049</v>
+        <v>1.476381576141716</v>
       </c>
       <c r="F85" t="n">
-        <v>-0.9785814735650847</v>
+        <v>-0.9348361328666838</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.09107552817748091</v>
+        <v>-0.1089498635302595</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.3782198894263634</v>
       </c>
       <c r="E86" t="n">
-        <v>1.58753961947905</v>
+        <v>1.554701490242934</v>
       </c>
       <c r="F86" t="n">
-        <v>-0.8844890107631619</v>
+        <v>-0.8410297228621557</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07498948024892763</v>
+        <v>-0.08980140388375421</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.2973163433957319</v>
       </c>
       <c r="E87" t="n">
-        <v>1.708195347594704</v>
+        <v>1.681498509652765</v>
       </c>
       <c r="F87" t="n">
-        <v>-0.7533292287525525</v>
+        <v>-0.7177940302838571</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01371318953875724</v>
+        <v>-0.02521446374019537</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.2208201921146445</v>
       </c>
       <c r="E88" t="n">
-        <v>1.835442488463975</v>
+        <v>1.815258993429028</v>
       </c>
       <c r="F88" t="n">
-        <v>-0.5914434728094061</v>
+        <v>-0.5585309332507274</v>
       </c>
       <c r="G88" t="n">
-        <v>-4.91366175704948e-05</v>
+        <v>-0.008373943934504737</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-0.1526736401195927</v>
       </c>
       <c r="E89" t="n">
-        <v>1.914259487916742</v>
+        <v>1.890174940233315</v>
       </c>
       <c r="F89" t="n">
-        <v>-0.4881540161227993</v>
+        <v>-0.4577153148290107</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03648145239557769</v>
+        <v>0.03571722178761237</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-0.09557427047354372</v>
       </c>
       <c r="E90" t="n">
-        <v>2.028095692945677</v>
+        <v>2.009960921463926</v>
       </c>
       <c r="F90" t="n">
-        <v>-0.350673016218373</v>
+        <v>-0.322801471053017</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05599220492407132</v>
+        <v>0.06068127508691038</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-0.05188400990281846</v>
       </c>
       <c r="E91" t="n">
-        <v>2.047388093871894</v>
+        <v>2.035004264451202</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.2274074375269138</v>
+        <v>-0.2026458778922962</v>
       </c>
       <c r="G91" t="n">
-        <v>0.07318830848430606</v>
+        <v>0.08158569636177332</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-0.02382765053911408</v>
       </c>
       <c r="E92" t="n">
-        <v>2.053484251035991</v>
+        <v>2.042913715787271</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.1231433275988636</v>
+        <v>-0.1087613980411443</v>
       </c>
       <c r="G92" t="n">
-        <v>0.08204496663136461</v>
+        <v>0.09197020580408576</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-0.01138446602343258</v>
       </c>
       <c r="E93" t="n">
-        <v>2.041893318495071</v>
+        <v>2.032902477799128</v>
       </c>
       <c r="F93" t="n">
-        <v>0.08330018338411212</v>
+        <v>0.1049901824906266</v>
       </c>
       <c r="G93" t="n">
-        <v>0.06476652377976888</v>
+        <v>0.0737219890764606</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-0.01268628505362276</v>
       </c>
       <c r="E94" t="n">
-        <v>1.955420594707762</v>
+        <v>1.947003689368639</v>
       </c>
       <c r="F94" t="n">
-        <v>0.2157639758016088</v>
+        <v>0.2407719433896327</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0478631821443732</v>
+        <v>0.06236709583744202</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-0.02346688563965412</v>
       </c>
       <c r="E95" t="n">
-        <v>1.848830857239271</v>
+        <v>1.843594688229389</v>
       </c>
       <c r="F95" t="n">
-        <v>0.31888570430211</v>
+        <v>0.3413783590192249</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01031890496646974</v>
+        <v>0.01875654760860238</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-0.03782679849794802</v>
       </c>
       <c r="E96" t="n">
-        <v>1.738752983420458</v>
+        <v>1.740914542298854</v>
       </c>
       <c r="F96" t="n">
-        <v>0.3404592085593655</v>
+        <v>0.3617527592259938</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.002898686019337422</v>
+        <v>0.008603198102777454</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.05274292428611688</v>
       </c>
       <c r="E97" t="n">
-        <v>1.624599619639615</v>
+        <v>1.619376868884622</v>
       </c>
       <c r="F97" t="n">
-        <v>0.3801308890577662</v>
+        <v>0.3973483398416872</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01068729705522557</v>
+        <v>0.01931462502782685</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.06821664652651044</v>
       </c>
       <c r="E98" t="n">
-        <v>1.484539875113898</v>
+        <v>1.470630634080659</v>
       </c>
       <c r="F98" t="n">
-        <v>0.3759169471021139</v>
+        <v>0.3890997726093464</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.04357795547572589</v>
+        <v>-0.03382959329926168</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.08469269800743241</v>
       </c>
       <c r="E99" t="n">
-        <v>1.342131326062024</v>
+        <v>1.318635351831659</v>
       </c>
       <c r="F99" t="n">
-        <v>0.3439107496690828</v>
+        <v>0.3521715153149585</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.03205472412992483</v>
+        <v>-0.02062664040969647</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1050690578965994</v>
       </c>
       <c r="E100" t="n">
-        <v>1.230624408097591</v>
+        <v>1.205453591688875</v>
       </c>
       <c r="F100" t="n">
-        <v>0.3403323450586019</v>
+        <v>0.347239086802097</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.03902977698921563</v>
+        <v>-0.0264141777113588</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.127549316376348</v>
       </c>
       <c r="E101" t="n">
-        <v>1.122773354669585</v>
+        <v>1.094974999985439</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2899791237483125</v>
+        <v>0.2922157028699476</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1041131925636474</v>
+        <v>-0.0933535819051349</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1537617114271609</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9984953076547243</v>
+        <v>0.9712995545992051</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2974256452907296</v>
+        <v>0.2923321977192065</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.1174509379227739</v>
+        <v>-0.1070237340330891</v>
       </c>
     </row>
   </sheetData>
